--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Compensation of employees(national concept) quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Compensation of employees(national concept) quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
   <si>
     <t>National accounts - Compensation of employees, wages and
 salaries (national concept): Germany, quarters, original and
@@ -145,9 +145,6 @@
     <t>EUR bn</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Employers' social contributions</t>
   </si>
   <si>
@@ -187,7 +184,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:47:34</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:16:54</t>
   </si>
 </sst>
 </file>
@@ -3814,21 +3811,21 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.246</v>
+        <v>445.275</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>463.051</v>
+        <v>463.183</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>476.611</v>
-      </c>
-      <c r="DV7" t="s" s="11">
-        <v>43</v>
+        <v>479.113</v>
+      </c>
+      <c r="DV7" t="n" s="11">
+        <v>532.842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>42</v>
@@ -4194,21 +4191,21 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.273</v>
+        <v>83.256</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.976</v>
+        <v>85.955</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>85.291</v>
-      </c>
-      <c r="DV8" t="s" s="11">
-        <v>43</v>
+        <v>85.52</v>
+      </c>
+      <c r="DV8" t="n" s="11">
+        <v>94.508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>42</v>
@@ -4574,21 +4571,21 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>361.973</v>
+        <v>362.019</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>377.075</v>
+        <v>377.228</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>391.32</v>
-      </c>
-      <c r="DV9" t="s" s="11">
-        <v>43</v>
+        <v>393.593</v>
+      </c>
+      <c r="DV9" t="n" s="11">
+        <v>438.334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>42</v>
@@ -4954,21 +4951,21 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.923</v>
+        <v>116.939</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>126.239</v>
+        <v>126.265</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>121.254</v>
-      </c>
-      <c r="DV10" t="s" s="11">
-        <v>43</v>
+        <v>121.457</v>
+      </c>
+      <c r="DV10" t="n" s="11">
+        <v>142.302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>42</v>
@@ -5334,21 +5331,21 @@
         <v>67.463</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>60.583</v>
+        <v>60.585</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>64.418</v>
+        <v>64.417</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>64.503</v>
-      </c>
-      <c r="DV11" t="s" s="11">
-        <v>43</v>
+        <v>64.739</v>
+      </c>
+      <c r="DV11" t="n" s="11">
+        <v>71.806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>42</v>
@@ -5714,21 +5711,21 @@
         <v>68.396</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>56.34</v>
+        <v>56.354</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>61.821</v>
+        <v>61.848</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>56.751</v>
-      </c>
-      <c r="DV12" t="s" s="11">
-        <v>43</v>
+        <v>56.718</v>
+      </c>
+      <c r="DV12" t="n" s="11">
+        <v>70.496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>42</v>
@@ -6094,24 +6091,24 @@
         <v>282.055</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>245.05</v>
+        <v>245.08</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>250.836</v>
+        <v>250.963</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>270.066</v>
-      </c>
-      <c r="DV13" t="s" s="11">
-        <v>43</v>
+        <v>272.136</v>
+      </c>
+      <c r="DV13" t="n" s="11">
+        <v>296.032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="14">
         <v>50</v>
-      </c>
-      <c r="B14" t="s" s="14">
-        <v>51</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>1786.0</v>
@@ -6480,18 +6477,18 @@
         <v>3794.0</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>3879.0</v>
-      </c>
-      <c r="DV14" t="s" s="11">
-        <v>43</v>
+        <v>3897.0</v>
+      </c>
+      <c r="DV14" t="n" s="11">
+        <v>4293.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>1470.0</v>
@@ -6854,24 +6851,24 @@
         <v>3406.0</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>2983.0</v>
+        <v>2984.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>3089.0</v>
+        <v>3090.0</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>3185.0</v>
-      </c>
-      <c r="DV15" t="s" s="11">
-        <v>43</v>
+        <v>3201.0</v>
+      </c>
+      <c r="DV15" t="n" s="11">
+        <v>3531.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>1070.0</v>
@@ -7237,18 +7234,18 @@
         <v>2020.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>2055.0</v>
+        <v>2056.0</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>2198.0</v>
-      </c>
-      <c r="DV16" t="s" s="11">
-        <v>43</v>
+        <v>2213.0</v>
+      </c>
+      <c r="DV16" t="n" s="11">
+        <v>2385.0</v>
       </c>
     </row>
     <row r="17" ht="33.75" customHeight="true">
       <c r="A17" t="s" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -7259,761 +7256,761 @@
         <v>42</v>
       </c>
       <c r="C18" t="n" s="11">
-        <v>205.854</v>
+        <v>205.893</v>
       </c>
       <c r="D18" t="n" s="11">
-        <v>214.861</v>
+        <v>214.81</v>
       </c>
       <c r="E18" t="n" s="11">
-        <v>215.966</v>
+        <v>215.949</v>
       </c>
       <c r="F18" t="n" s="11">
-        <v>219.128</v>
+        <v>219.158</v>
       </c>
       <c r="G18" t="n" s="11">
-        <v>225.495</v>
+        <v>225.53</v>
       </c>
       <c r="H18" t="n" s="11">
-        <v>229.924</v>
+        <v>229.877</v>
       </c>
       <c r="I18" t="n" s="11">
-        <v>236.977</v>
+        <v>236.961</v>
       </c>
       <c r="J18" t="n" s="11">
-        <v>235.338</v>
+        <v>235.367</v>
       </c>
       <c r="K18" t="n" s="11">
-        <v>233.769</v>
+        <v>233.799</v>
       </c>
       <c r="L18" t="n" s="11">
-        <v>237.069</v>
+        <v>237.023</v>
       </c>
       <c r="M18" t="n" s="11">
-        <v>238.47</v>
+        <v>238.462</v>
       </c>
       <c r="N18" t="n" s="11">
-        <v>240.051</v>
+        <v>240.073</v>
       </c>
       <c r="O18" t="n" s="11">
-        <v>242.488</v>
+        <v>242.509</v>
       </c>
       <c r="P18" t="n" s="11">
-        <v>241.559</v>
+        <v>241.521</v>
       </c>
       <c r="Q18" t="n" s="11">
-        <v>243.667</v>
+        <v>243.669</v>
       </c>
       <c r="R18" t="n" s="11">
-        <v>246.88</v>
+        <v>246.896</v>
       </c>
       <c r="S18" t="n" s="11">
-        <v>248.927</v>
+        <v>248.938</v>
       </c>
       <c r="T18" t="n" s="11">
-        <v>251.588</v>
+        <v>251.561</v>
       </c>
       <c r="U18" t="n" s="11">
-        <v>253.561</v>
+        <v>253.566</v>
       </c>
       <c r="V18" t="n" s="11">
-        <v>255.355</v>
+        <v>255.365</v>
       </c>
       <c r="W18" t="n" s="11">
-        <v>254.036</v>
+        <v>254.04</v>
       </c>
       <c r="X18" t="n" s="11">
-        <v>253.38</v>
+        <v>253.367</v>
       </c>
       <c r="Y18" t="n" s="11">
-        <v>255.316</v>
+        <v>255.318</v>
       </c>
       <c r="Z18" t="n" s="11">
-        <v>255.87</v>
+        <v>255.877</v>
       </c>
       <c r="AA18" t="n" s="11">
-        <v>255.316</v>
+        <v>255.317</v>
       </c>
       <c r="AB18" t="n" s="11">
-        <v>254.942</v>
+        <v>254.936</v>
       </c>
       <c r="AC18" t="n" s="11">
-        <v>255.159</v>
+        <v>255.157</v>
       </c>
       <c r="AD18" t="n" s="11">
-        <v>257.009</v>
+        <v>257.016</v>
       </c>
       <c r="AE18" t="n" s="11">
-        <v>257.713</v>
+        <v>257.712</v>
       </c>
       <c r="AF18" t="n" s="11">
-        <v>260.234</v>
+        <v>260.233</v>
       </c>
       <c r="AG18" t="n" s="11">
-        <v>262.045</v>
+        <v>262.042</v>
       </c>
       <c r="AH18" t="n" s="11">
-        <v>264.36</v>
+        <v>264.366</v>
       </c>
       <c r="AI18" t="n" s="11">
-        <v>264.352</v>
+        <v>264.349</v>
       </c>
       <c r="AJ18" t="n" s="11">
         <v>268.271</v>
       </c>
       <c r="AK18" t="n" s="11">
-        <v>269.836</v>
+        <v>269.833</v>
       </c>
       <c r="AL18" t="n" s="11">
-        <v>271.911</v>
+        <v>271.916</v>
       </c>
       <c r="AM18" t="n" s="11">
-        <v>276.119</v>
+        <v>276.115</v>
       </c>
       <c r="AN18" t="n" s="11">
-        <v>278.341</v>
+        <v>278.342</v>
       </c>
       <c r="AO18" t="n" s="11">
-        <v>280.674</v>
+        <v>280.67</v>
       </c>
       <c r="AP18" t="n" s="11">
-        <v>282.279</v>
+        <v>282.285</v>
       </c>
       <c r="AQ18" t="n" s="11">
-        <v>282.595</v>
+        <v>282.591</v>
       </c>
       <c r="AR18" t="n" s="11">
-        <v>283.106</v>
+        <v>283.108</v>
       </c>
       <c r="AS18" t="n" s="11">
-        <v>283.364</v>
+        <v>283.359</v>
       </c>
       <c r="AT18" t="n" s="11">
-        <v>285.982</v>
+        <v>285.991</v>
       </c>
       <c r="AU18" t="n" s="11">
-        <v>284.594</v>
+        <v>284.589</v>
       </c>
       <c r="AV18" t="n" s="11">
-        <v>284.419</v>
+        <v>284.421</v>
       </c>
       <c r="AW18" t="n" s="11">
-        <v>286.307</v>
+        <v>286.303</v>
       </c>
       <c r="AX18" t="n" s="11">
-        <v>286.884</v>
+        <v>286.891</v>
       </c>
       <c r="AY18" t="n" s="11">
-        <v>286.008</v>
+        <v>286.005</v>
       </c>
       <c r="AZ18" t="n" s="11">
         <v>285.213</v>
       </c>
       <c r="BA18" t="n" s="11">
-        <v>287.557</v>
+        <v>287.555</v>
       </c>
       <c r="BB18" t="n" s="11">
-        <v>287.143</v>
+        <v>287.148</v>
       </c>
       <c r="BC18" t="n" s="11">
-        <v>287.901</v>
+        <v>287.898</v>
       </c>
       <c r="BD18" t="n" s="11">
-        <v>287.404</v>
+        <v>287.405</v>
       </c>
       <c r="BE18" t="n" s="11">
-        <v>287.433</v>
+        <v>287.432</v>
       </c>
       <c r="BF18" t="n" s="11">
-        <v>287.271</v>
+        <v>287.275</v>
       </c>
       <c r="BG18" t="n" s="11">
-        <v>287.371</v>
+        <v>287.369</v>
       </c>
       <c r="BH18" t="n" s="11">
-        <v>286.83</v>
+        <v>286.829</v>
       </c>
       <c r="BI18" t="n" s="11">
-        <v>286.954</v>
+        <v>286.956</v>
       </c>
       <c r="BJ18" t="n" s="11">
-        <v>287.803</v>
+        <v>287.804</v>
       </c>
       <c r="BK18" t="n" s="11">
-        <v>289.024</v>
+        <v>289.021</v>
       </c>
       <c r="BL18" t="n" s="11">
-        <v>290.999</v>
+        <v>290.998</v>
       </c>
       <c r="BM18" t="n" s="11">
-        <v>294.635</v>
+        <v>294.639</v>
       </c>
       <c r="BN18" t="n" s="11">
         <v>295.217</v>
       </c>
       <c r="BO18" t="n" s="11">
-        <v>297.831</v>
+        <v>297.826</v>
       </c>
       <c r="BP18" t="n" s="11">
-        <v>299.967</v>
+        <v>299.969</v>
       </c>
       <c r="BQ18" t="n" s="11">
-        <v>302.063</v>
+        <v>302.069</v>
       </c>
       <c r="BR18" t="n" s="11">
-        <v>304.577</v>
+        <v>304.574</v>
       </c>
       <c r="BS18" t="n" s="11">
-        <v>308.97</v>
+        <v>308.962</v>
       </c>
       <c r="BT18" t="n" s="11">
-        <v>311.766</v>
+        <v>311.772</v>
       </c>
       <c r="BU18" t="n" s="11">
+        <v>313.956</v>
+      </c>
+      <c r="BV18" t="n" s="11">
+        <v>316.529</v>
+      </c>
+      <c r="BW18" t="n" s="11">
         <v>313.951</v>
       </c>
-      <c r="BV18" t="n" s="11">
-        <v>316.533</v>
-      </c>
-      <c r="BW18" t="n" s="11">
-        <v>313.961</v>
-      </c>
       <c r="BX18" t="n" s="11">
-        <v>312.896</v>
+        <v>312.907</v>
       </c>
       <c r="BY18" t="n" s="11">
-        <v>314.978</v>
+        <v>314.982</v>
       </c>
       <c r="BZ18" t="n" s="11">
-        <v>316.195</v>
+        <v>316.19</v>
       </c>
       <c r="CA18" t="n" s="11">
-        <v>319.308</v>
+        <v>319.296</v>
       </c>
       <c r="CB18" t="n" s="11">
-        <v>321.977</v>
+        <v>321.991</v>
       </c>
       <c r="CC18" t="n" s="11">
-        <v>325.469</v>
+        <v>325.473</v>
       </c>
       <c r="CD18" t="n" s="11">
-        <v>328.654</v>
+        <v>328.649</v>
       </c>
       <c r="CE18" t="n" s="11">
-        <v>333.541</v>
+        <v>333.53</v>
       </c>
       <c r="CF18" t="n" s="11">
-        <v>337.303</v>
+        <v>337.317</v>
       </c>
       <c r="CG18" t="n" s="11">
-        <v>339.377</v>
+        <v>339.379</v>
       </c>
       <c r="CH18" t="n" s="11">
-        <v>341.973</v>
+        <v>341.968</v>
       </c>
       <c r="CI18" t="n" s="11">
-        <v>346.361</v>
+        <v>346.351</v>
       </c>
       <c r="CJ18" t="n" s="11">
-        <v>350.945</v>
+        <v>350.956</v>
       </c>
       <c r="CK18" t="n" s="11">
-        <v>352.988</v>
+        <v>352.989</v>
       </c>
       <c r="CL18" t="n" s="11">
-        <v>355.597</v>
+        <v>355.594</v>
       </c>
       <c r="CM18" t="n" s="11">
-        <v>356.772</v>
+        <v>356.766</v>
       </c>
       <c r="CN18" t="n" s="11">
-        <v>360.109</v>
+        <v>360.117</v>
       </c>
       <c r="CO18" t="n" s="11">
-        <v>363.428</v>
+        <v>363.43</v>
       </c>
       <c r="CP18" t="n" s="11">
-        <v>366.302</v>
+        <v>366.299</v>
       </c>
       <c r="CQ18" t="n" s="11">
-        <v>371.466</v>
+        <v>371.461</v>
       </c>
       <c r="CR18" t="n" s="11">
-        <v>374.31</v>
+        <v>374.317</v>
       </c>
       <c r="CS18" t="n" s="11">
-        <v>377.491</v>
+        <v>377.494</v>
       </c>
       <c r="CT18" t="n" s="11">
-        <v>380.683</v>
+        <v>380.678</v>
       </c>
       <c r="CU18" t="n" s="11">
-        <v>384.292</v>
+        <v>384.289</v>
       </c>
       <c r="CV18" t="n" s="11">
-        <v>389.999</v>
+        <v>390.016</v>
       </c>
       <c r="CW18" t="n" s="11">
-        <v>393.159</v>
+        <v>393.167</v>
       </c>
       <c r="CX18" t="n" s="11">
-        <v>397.363</v>
+        <v>397.34</v>
       </c>
       <c r="CY18" t="n" s="11">
-        <v>400.55</v>
+        <v>400.544</v>
       </c>
       <c r="CZ18" t="n" s="11">
-        <v>403.614</v>
+        <v>403.656</v>
       </c>
       <c r="DA18" t="n" s="11">
-        <v>407.775</v>
+        <v>407.794</v>
       </c>
       <c r="DB18" t="n" s="11">
-        <v>413.111</v>
+        <v>413.054</v>
       </c>
       <c r="DC18" t="n" s="11">
-        <v>417.307</v>
+        <v>417.28</v>
       </c>
       <c r="DD18" t="n" s="11">
-        <v>421.625</v>
+        <v>421.741</v>
       </c>
       <c r="DE18" t="n" s="11">
-        <v>425.683</v>
+        <v>425.718</v>
       </c>
       <c r="DF18" t="n" s="11">
-        <v>431.699</v>
+        <v>431.577</v>
       </c>
       <c r="DG18" t="n" s="11">
-        <v>435.952</v>
+        <v>435.876</v>
       </c>
       <c r="DH18" t="n" s="11">
-        <v>440.498</v>
+        <v>440.763</v>
       </c>
       <c r="DI18" t="n" s="11">
-        <v>446.495</v>
+        <v>446.54</v>
       </c>
       <c r="DJ18" t="n" s="11">
-        <v>450.711</v>
+        <v>450.478</v>
       </c>
       <c r="DK18" t="n" s="11">
-        <v>457.142</v>
+        <v>456.997</v>
       </c>
       <c r="DL18" t="n" s="11">
-        <v>461.951</v>
+        <v>462.434</v>
       </c>
       <c r="DM18" t="n" s="11">
-        <v>468.002</v>
+        <v>468.052</v>
       </c>
       <c r="DN18" t="n" s="11">
-        <v>468.432</v>
+        <v>468.044</v>
       </c>
       <c r="DO18" t="n" s="11">
-        <v>470.049</v>
+        <v>469.829</v>
       </c>
       <c r="DP18" t="n" s="11">
-        <v>447.28</v>
+        <v>448.023</v>
       </c>
       <c r="DQ18" t="n" s="11">
-        <v>464.238</v>
+        <v>464.281</v>
       </c>
       <c r="DR18" t="n" s="11">
-        <v>470.538</v>
+        <v>469.972</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>467.948</v>
+        <v>467.963</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>471.253</v>
+        <v>472.662</v>
       </c>
       <c r="DU18" t="n" s="11">
-        <v>484.365</v>
-      </c>
-      <c r="DV18" t="s" s="11">
-        <v>43</v>
+        <v>487.234</v>
+      </c>
+      <c r="DV18" t="n" s="11">
+        <v>492.554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C19" t="n" s="11">
-        <v>35.755</v>
+        <v>35.794</v>
       </c>
       <c r="D19" t="n" s="11">
-        <v>39.216</v>
+        <v>39.165</v>
       </c>
       <c r="E19" t="n" s="11">
-        <v>38.918</v>
+        <v>38.901</v>
       </c>
       <c r="F19" t="n" s="11">
-        <v>38.599</v>
+        <v>38.629</v>
       </c>
       <c r="G19" t="n" s="11">
-        <v>39.723</v>
+        <v>39.758</v>
       </c>
       <c r="H19" t="n" s="11">
-        <v>41.116</v>
+        <v>41.069</v>
       </c>
       <c r="I19" t="n" s="11">
-        <v>42.443</v>
+        <v>42.427</v>
       </c>
       <c r="J19" t="n" s="11">
-        <v>42.263</v>
+        <v>42.292</v>
       </c>
       <c r="K19" t="n" s="11">
-        <v>40.523</v>
+        <v>40.553</v>
       </c>
       <c r="L19" t="n" s="11">
-        <v>42.206</v>
+        <v>42.16</v>
       </c>
       <c r="M19" t="n" s="11">
-        <v>42.084</v>
+        <v>42.076</v>
       </c>
       <c r="N19" t="n" s="11">
-        <v>42.898</v>
+        <v>42.92</v>
       </c>
       <c r="O19" t="n" s="11">
-        <v>44.024</v>
+        <v>44.045</v>
       </c>
       <c r="P19" t="n" s="11">
-        <v>44.939</v>
+        <v>44.901</v>
       </c>
       <c r="Q19" t="n" s="11">
-        <v>44.966</v>
+        <v>44.968</v>
       </c>
       <c r="R19" t="n" s="11">
-        <v>45.793</v>
+        <v>45.809</v>
       </c>
       <c r="S19" t="n" s="11">
-        <v>46.011</v>
+        <v>46.022</v>
       </c>
       <c r="T19" t="n" s="11">
-        <v>47.396</v>
+        <v>47.369</v>
       </c>
       <c r="U19" t="n" s="11">
-        <v>47.982</v>
+        <v>47.987</v>
       </c>
       <c r="V19" t="n" s="11">
-        <v>48.458</v>
+        <v>48.468</v>
       </c>
       <c r="W19" t="n" s="11">
-        <v>46.705</v>
+        <v>46.709</v>
       </c>
       <c r="X19" t="n" s="11">
-        <v>47.296</v>
+        <v>47.283</v>
       </c>
       <c r="Y19" t="n" s="11">
-        <v>47.91</v>
+        <v>47.912</v>
       </c>
       <c r="Z19" t="n" s="11">
-        <v>48.726</v>
+        <v>48.733</v>
       </c>
       <c r="AA19" t="n" s="11">
-        <v>48.653</v>
+        <v>48.654</v>
       </c>
       <c r="AB19" t="n" s="11">
-        <v>49.065</v>
+        <v>49.059</v>
       </c>
       <c r="AC19" t="n" s="11">
-        <v>48.923</v>
+        <v>48.921</v>
       </c>
       <c r="AD19" t="n" s="11">
-        <v>49.647</v>
+        <v>49.654</v>
       </c>
       <c r="AE19" t="n" s="11">
-        <v>49.301</v>
+        <v>49.3</v>
       </c>
       <c r="AF19" t="n" s="11">
-        <v>50.094</v>
+        <v>50.093</v>
       </c>
       <c r="AG19" t="n" s="11">
-        <v>50.336</v>
+        <v>50.333</v>
       </c>
       <c r="AH19" t="n" s="11">
-        <v>51.374</v>
+        <v>51.38</v>
       </c>
       <c r="AI19" t="n" s="11">
-        <v>50.43</v>
+        <v>50.427</v>
       </c>
       <c r="AJ19" t="n" s="11">
         <v>51.182</v>
       </c>
       <c r="AK19" t="n" s="11">
-        <v>51.636</v>
+        <v>51.633</v>
       </c>
       <c r="AL19" t="n" s="11">
-        <v>52.43</v>
+        <v>52.435</v>
       </c>
       <c r="AM19" t="n" s="11">
-        <v>53.636</v>
+        <v>53.632</v>
       </c>
       <c r="AN19" t="n" s="11">
-        <v>54.028</v>
+        <v>54.029</v>
       </c>
       <c r="AO19" t="n" s="11">
-        <v>54.676</v>
+        <v>54.672</v>
       </c>
       <c r="AP19" t="n" s="11">
-        <v>55.017</v>
+        <v>55.023</v>
       </c>
       <c r="AQ19" t="n" s="11">
-        <v>53.761</v>
+        <v>53.757</v>
       </c>
       <c r="AR19" t="n" s="11">
-        <v>53.983</v>
+        <v>53.985</v>
       </c>
       <c r="AS19" t="n" s="11">
-        <v>54.445</v>
+        <v>54.44</v>
       </c>
       <c r="AT19" t="n" s="11">
-        <v>55.076</v>
+        <v>55.085</v>
       </c>
       <c r="AU19" t="n" s="11">
-        <v>53.682</v>
+        <v>53.677</v>
       </c>
       <c r="AV19" t="n" s="11">
-        <v>53.608</v>
+        <v>53.61</v>
       </c>
       <c r="AW19" t="n" s="11">
-        <v>54.712</v>
+        <v>54.708</v>
       </c>
       <c r="AX19" t="n" s="11">
-        <v>54.552</v>
+        <v>54.559</v>
       </c>
       <c r="AY19" t="n" s="11">
-        <v>55.017</v>
+        <v>55.014</v>
       </c>
       <c r="AZ19" t="n" s="11">
         <v>54.716</v>
       </c>
       <c r="BA19" t="n" s="11">
-        <v>55.813</v>
+        <v>55.811</v>
       </c>
       <c r="BB19" t="n" s="11">
-        <v>55.311</v>
+        <v>55.316</v>
       </c>
       <c r="BC19" t="n" s="11">
-        <v>54.774</v>
+        <v>54.771</v>
       </c>
       <c r="BD19" t="n" s="11">
-        <v>54.493</v>
+        <v>54.494</v>
       </c>
       <c r="BE19" t="n" s="11">
-        <v>55.002</v>
+        <v>55.001</v>
       </c>
       <c r="BF19" t="n" s="11">
-        <v>54.621</v>
+        <v>54.625</v>
       </c>
       <c r="BG19" t="n" s="11">
-        <v>54.549</v>
+        <v>54.547</v>
       </c>
       <c r="BH19" t="n" s="11">
-        <v>54.811</v>
+        <v>54.81</v>
       </c>
       <c r="BI19" t="n" s="11">
-        <v>54.418</v>
+        <v>54.42</v>
       </c>
       <c r="BJ19" t="n" s="11">
-        <v>54.197</v>
+        <v>54.198</v>
       </c>
       <c r="BK19" t="n" s="11">
-        <v>55.668</v>
+        <v>55.665</v>
       </c>
       <c r="BL19" t="n" s="11">
-        <v>55.548</v>
+        <v>55.547</v>
       </c>
       <c r="BM19" t="n" s="11">
-        <v>56.612</v>
+        <v>56.616</v>
       </c>
       <c r="BN19" t="n" s="11">
         <v>56.014</v>
       </c>
       <c r="BO19" t="n" s="11">
-        <v>56.183</v>
+        <v>56.178</v>
       </c>
       <c r="BP19" t="n" s="11">
-        <v>56.092</v>
+        <v>56.094</v>
       </c>
       <c r="BQ19" t="n" s="11">
-        <v>56.998</v>
+        <v>57.004</v>
       </c>
       <c r="BR19" t="n" s="11">
-        <v>56.446</v>
+        <v>56.443</v>
       </c>
       <c r="BS19" t="n" s="11">
-        <v>57.015</v>
+        <v>57.007</v>
       </c>
       <c r="BT19" t="n" s="11">
-        <v>57.956</v>
+        <v>57.962</v>
       </c>
       <c r="BU19" t="n" s="11">
-        <v>58.446</v>
+        <v>58.451</v>
       </c>
       <c r="BV19" t="n" s="11">
-        <v>58.783</v>
+        <v>58.779</v>
       </c>
       <c r="BW19" t="n" s="11">
-        <v>59.273</v>
+        <v>59.263</v>
       </c>
       <c r="BX19" t="n" s="11">
-        <v>59.742</v>
+        <v>59.753</v>
       </c>
       <c r="BY19" t="n" s="11">
-        <v>58.972</v>
+        <v>58.976</v>
       </c>
       <c r="BZ19" t="n" s="11">
-        <v>58.592</v>
+        <v>58.587</v>
       </c>
       <c r="CA19" t="n" s="11">
-        <v>60.056</v>
+        <v>60.044</v>
       </c>
       <c r="CB19" t="n" s="11">
-        <v>60.761</v>
+        <v>60.775</v>
       </c>
       <c r="CC19" t="n" s="11">
-        <v>61.003</v>
+        <v>61.007</v>
       </c>
       <c r="CD19" t="n" s="11">
-        <v>61.254</v>
+        <v>61.249</v>
       </c>
       <c r="CE19" t="n" s="11">
-        <v>61.557</v>
+        <v>61.546</v>
       </c>
       <c r="CF19" t="n" s="11">
-        <v>62.209</v>
+        <v>62.223</v>
       </c>
       <c r="CG19" t="n" s="11">
-        <v>62.454</v>
+        <v>62.456</v>
       </c>
       <c r="CH19" t="n" s="11">
-        <v>62.429</v>
+        <v>62.424</v>
       </c>
       <c r="CI19" t="n" s="11">
-        <v>63.223</v>
+        <v>63.213</v>
       </c>
       <c r="CJ19" t="n" s="11">
-        <v>64.062</v>
+        <v>64.073</v>
       </c>
       <c r="CK19" t="n" s="11">
-        <v>64.309</v>
+        <v>64.31</v>
       </c>
       <c r="CL19" t="n" s="11">
-        <v>64.34</v>
+        <v>64.337</v>
       </c>
       <c r="CM19" t="n" s="11">
-        <v>64.33</v>
+        <v>64.324</v>
       </c>
       <c r="CN19" t="n" s="11">
-        <v>64.998</v>
+        <v>65.006</v>
       </c>
       <c r="CO19" t="n" s="11">
-        <v>65.284</v>
+        <v>65.286</v>
       </c>
       <c r="CP19" t="n" s="11">
-        <v>65.656</v>
+        <v>65.653</v>
       </c>
       <c r="CQ19" t="n" s="11">
-        <v>66.782</v>
+        <v>66.777</v>
       </c>
       <c r="CR19" t="n" s="11">
-        <v>67.183</v>
+        <v>67.19</v>
       </c>
       <c r="CS19" t="n" s="11">
-        <v>67.644</v>
+        <v>67.647</v>
       </c>
       <c r="CT19" t="n" s="11">
-        <v>68.172</v>
+        <v>68.167</v>
       </c>
       <c r="CU19" t="n" s="11">
-        <v>68.922</v>
+        <v>68.919</v>
       </c>
       <c r="CV19" t="n" s="11">
-        <v>69.505</v>
+        <v>69.522</v>
       </c>
       <c r="CW19" t="n" s="11">
-        <v>70.084</v>
+        <v>70.092</v>
       </c>
       <c r="CX19" t="n" s="11">
-        <v>70.845</v>
+        <v>70.822</v>
       </c>
       <c r="CY19" t="n" s="11">
-        <v>70.869</v>
+        <v>70.863</v>
       </c>
       <c r="CZ19" t="n" s="11">
-        <v>71.296</v>
+        <v>71.338</v>
       </c>
       <c r="DA19" t="n" s="11">
-        <v>72.269</v>
+        <v>72.288</v>
       </c>
       <c r="DB19" t="n" s="11">
-        <v>73.228</v>
+        <v>73.171</v>
       </c>
       <c r="DC19" t="n" s="11">
-        <v>73.706</v>
+        <v>73.679</v>
       </c>
       <c r="DD19" t="n" s="11">
-        <v>74.687</v>
+        <v>74.803</v>
       </c>
       <c r="DE19" t="n" s="11">
-        <v>75.329</v>
+        <v>75.364</v>
       </c>
       <c r="DF19" t="n" s="11">
-        <v>77.166</v>
+        <v>77.044</v>
       </c>
       <c r="DG19" t="n" s="11">
-        <v>76.02</v>
+        <v>75.944</v>
       </c>
       <c r="DH19" t="n" s="11">
-        <v>76.482</v>
+        <v>76.747</v>
       </c>
       <c r="DI19" t="n" s="11">
-        <v>78.203</v>
+        <v>78.248</v>
       </c>
       <c r="DJ19" t="n" s="11">
-        <v>80.305</v>
+        <v>80.072</v>
       </c>
       <c r="DK19" t="n" s="11">
-        <v>81.169</v>
+        <v>81.024</v>
       </c>
       <c r="DL19" t="n" s="11">
-        <v>81.284</v>
+        <v>81.767</v>
       </c>
       <c r="DM19" t="n" s="11">
-        <v>83.226</v>
+        <v>83.276</v>
       </c>
       <c r="DN19" t="n" s="11">
-        <v>85.786</v>
+        <v>85.398</v>
       </c>
       <c r="DO19" t="n" s="11">
-        <v>82.964</v>
+        <v>82.744</v>
       </c>
       <c r="DP19" t="n" s="11">
-        <v>82.866</v>
+        <v>83.609</v>
       </c>
       <c r="DQ19" t="n" s="11">
-        <v>84.32</v>
+        <v>84.363</v>
       </c>
       <c r="DR19" t="n" s="11">
-        <v>87.898</v>
+        <v>87.332</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>85.05</v>
+        <v>84.756</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>84.708</v>
+        <v>85.696</v>
       </c>
       <c r="DU19" t="n" s="11">
-        <v>87.086</v>
-      </c>
-      <c r="DV19" t="s" s="11">
-        <v>43</v>
+        <v>87.374</v>
+      </c>
+      <c r="DV19" t="n" s="11">
+        <v>91.414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>42</v>
@@ -8379,21 +8376,21 @@
         <v>382.64</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>382.898</v>
+        <v>383.207</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>386.545</v>
+        <v>386.966</v>
       </c>
       <c r="DU20" t="n" s="11">
-        <v>397.279</v>
-      </c>
-      <c r="DV20" t="s" s="11">
-        <v>43</v>
+        <v>399.86</v>
+      </c>
+      <c r="DV20" t="n" s="11">
+        <v>401.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="14">
         <v>42</v>
@@ -8759,21 +8756,21 @@
         <v>122.341</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>124.703</v>
+        <v>124.839</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>124.9</v>
+        <v>125.046</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>128.855</v>
-      </c>
-      <c r="DV21" t="s" s="11">
-        <v>43</v>
+        <v>129.232</v>
+      </c>
+      <c r="DV21" t="n" s="11">
+        <v>127.845</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>42</v>
@@ -9139,21 +9136,21 @@
         <v>61.418</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>63.726</v>
+        <v>63.791</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>65.484</v>
+        <v>65.549</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>66.743</v>
-      </c>
-      <c r="DV22" t="s" s="11">
-        <v>43</v>
+        <v>67.098</v>
+      </c>
+      <c r="DV22" t="n" s="11">
+        <v>65.109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>42</v>
@@ -9519,21 +9516,21 @@
         <v>60.923</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>60.977</v>
+        <v>61.048</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>59.416</v>
+        <v>59.497</v>
       </c>
       <c r="DU23" t="n" s="11">
-        <v>62.112</v>
-      </c>
-      <c r="DV23" t="s" s="11">
-        <v>43</v>
+        <v>62.134</v>
+      </c>
+      <c r="DV23" t="n" s="11">
+        <v>62.736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>42</v>
@@ -9899,51 +9896,51 @@
         <v>260.299</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>258.195</v>
+        <v>258.368</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>261.645</v>
+        <v>261.92</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>268.424</v>
-      </c>
-      <c r="DV24" t="s" s="11">
-        <v>43</v>
+        <v>270.628</v>
+      </c>
+      <c r="DV24" t="n" s="11">
+        <v>273.295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="14">
         <v>50</v>
-      </c>
-      <c r="B25" t="s" s="14">
-        <v>51</v>
       </c>
       <c r="C25" t="n" s="11">
         <v>1923.0</v>
       </c>
       <c r="D25" t="n" s="11">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E25" t="n" s="11">
         <v>2047.0</v>
       </c>
       <c r="F25" t="n" s="11">
-        <v>2080.0</v>
+        <v>2081.0</v>
       </c>
       <c r="G25" t="n" s="11">
         <v>2147.0</v>
       </c>
       <c r="H25" t="n" s="11">
-        <v>2197.0</v>
+        <v>2196.0</v>
       </c>
       <c r="I25" t="n" s="11">
         <v>2277.0</v>
       </c>
       <c r="J25" t="n" s="11">
-        <v>2273.0</v>
+        <v>2274.0</v>
       </c>
       <c r="K25" t="n" s="11">
-        <v>2265.0</v>
+        <v>2266.0</v>
       </c>
       <c r="L25" t="n" s="11">
         <v>2309.0</v>
@@ -9958,7 +9955,7 @@
         <v>2370.0</v>
       </c>
       <c r="P25" t="n" s="11">
-        <v>2364.0</v>
+        <v>2363.0</v>
       </c>
       <c r="Q25" t="n" s="11">
         <v>2381.0</v>
@@ -9973,13 +9970,13 @@
         <v>2454.0</v>
       </c>
       <c r="U25" t="n" s="11">
-        <v>2474.0</v>
+        <v>2475.0</v>
       </c>
       <c r="V25" t="n" s="11">
-        <v>2489.0</v>
+        <v>2490.0</v>
       </c>
       <c r="W25" t="n" s="11">
-        <v>2480.0</v>
+        <v>2481.0</v>
       </c>
       <c r="X25" t="n" s="11">
         <v>2471.0</v>
@@ -10003,7 +10000,7 @@
         <v>2515.0</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>2516.0</v>
+        <v>2517.0</v>
       </c>
       <c r="AF25" t="n" s="11">
         <v>2526.0</v>
@@ -10090,7 +10087,7 @@
         <v>2753.0</v>
       </c>
       <c r="BH25" t="n" s="11">
-        <v>2751.0</v>
+        <v>2752.0</v>
       </c>
       <c r="BI25" t="n" s="11">
         <v>2747.0</v>
@@ -10102,7 +10099,7 @@
         <v>2771.0</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>2771.0</v>
+        <v>2772.0</v>
       </c>
       <c r="BM25" t="n" s="11">
         <v>2789.0</v>
@@ -10171,7 +10168,7 @@
         <v>3068.0</v>
       </c>
       <c r="CI25" t="n" s="11">
-        <v>3097.0</v>
+        <v>3096.0</v>
       </c>
       <c r="CJ25" t="n" s="11">
         <v>3129.0</v>
@@ -10219,84 +10216,84 @@
         <v>3409.0</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>3426.0</v>
+        <v>3425.0</v>
       </c>
       <c r="CZ25" t="n" s="11">
-        <v>3437.0</v>
+        <v>3438.0</v>
       </c>
       <c r="DA25" t="n" s="11">
         <v>3460.0</v>
       </c>
       <c r="DB25" t="n" s="11">
-        <v>3489.0</v>
+        <v>3488.0</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>3512.0</v>
+        <v>3511.0</v>
       </c>
       <c r="DD25" t="n" s="11">
-        <v>3533.0</v>
+        <v>3534.0</v>
       </c>
       <c r="DE25" t="n" s="11">
         <v>3552.0</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>3589.0</v>
+        <v>3588.0</v>
       </c>
       <c r="DG25" t="n" s="11">
         <v>3606.0</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>3631.0</v>
+        <v>3633.0</v>
       </c>
       <c r="DI25" t="n" s="11">
         <v>3669.0</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>3693.0</v>
+        <v>3691.0</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>3730.0</v>
+        <v>3729.0</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>3759.0</v>
+        <v>3763.0</v>
       </c>
       <c r="DM25" t="n" s="11">
         <v>3805.0</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>3801.0</v>
+        <v>3798.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>3806.0</v>
+        <v>3805.0</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>3669.0</v>
+        <v>3675.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>3811.0</v>
+        <v>3810.0</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>3857.0</v>
+        <v>3853.0</v>
       </c>
       <c r="DS25" t="n" s="11">
         <v>3839.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>3855.0</v>
+        <v>3865.0</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>3944.0</v>
-      </c>
-      <c r="DV25" t="s" s="11">
-        <v>43</v>
+        <v>3964.0</v>
+      </c>
+      <c r="DV25" t="n" s="11">
+        <v>3992.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="n" s="11">
         <v>1589.0</v>
@@ -10482,7 +10479,7 @@
         <v>2237.0</v>
       </c>
       <c r="BL26" t="n" s="11">
-        <v>2242.0</v>
+        <v>2243.0</v>
       </c>
       <c r="BM26" t="n" s="11">
         <v>2253.0</v>
@@ -10605,7 +10602,7 @@
         <v>2830.0</v>
       </c>
       <c r="DA26" t="n" s="11">
-        <v>2847.0</v>
+        <v>2846.0</v>
       </c>
       <c r="DB26" t="n" s="11">
         <v>2870.0</v>
@@ -10617,7 +10614,7 @@
         <v>2907.0</v>
       </c>
       <c r="DE26" t="n" s="11">
-        <v>2924.0</v>
+        <v>2923.0</v>
       </c>
       <c r="DF26" t="n" s="11">
         <v>2948.0</v>
@@ -10629,7 +10626,7 @@
         <v>3000.0</v>
       </c>
       <c r="DI26" t="n" s="11">
-        <v>3027.0</v>
+        <v>3026.0</v>
       </c>
       <c r="DJ26" t="n" s="11">
         <v>3035.0</v>
@@ -10638,7 +10635,7 @@
         <v>3068.0</v>
       </c>
       <c r="DL26" t="n" s="11">
-        <v>3098.0</v>
+        <v>3097.0</v>
       </c>
       <c r="DM26" t="n" s="11">
         <v>3128.0</v>
@@ -10650,7 +10647,7 @@
         <v>3135.0</v>
       </c>
       <c r="DP26" t="n" s="11">
-        <v>2990.0</v>
+        <v>2989.0</v>
       </c>
       <c r="DQ26" t="n" s="11">
         <v>3118.0</v>
@@ -10659,24 +10656,24 @@
         <v>3137.0</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>3141.0</v>
+        <v>3144.0</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>3162.0</v>
+        <v>3164.0</v>
       </c>
       <c r="DU26" t="n" s="11">
-        <v>3235.0</v>
-      </c>
-      <c r="DV26" t="s" s="11">
-        <v>43</v>
+        <v>3253.0</v>
+      </c>
+      <c r="DV26" t="n" s="11">
+        <v>3251.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n" s="11">
         <v>1137.0</v>
@@ -10763,7 +10760,7 @@
         <v>1336.0</v>
       </c>
       <c r="AE27" t="n" s="11">
-        <v>1347.0</v>
+        <v>1348.0</v>
       </c>
       <c r="AF27" t="n" s="11">
         <v>1347.0</v>
@@ -11009,7 +11006,7 @@
         <v>1997.0</v>
       </c>
       <c r="DI27" t="n" s="11">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
         <v>2033.0</v>
@@ -11018,7 +11015,7 @@
         <v>2059.0</v>
       </c>
       <c r="DL27" t="n" s="11">
-        <v>2071.0</v>
+        <v>2070.0</v>
       </c>
       <c r="DM27" t="n" s="11">
         <v>2097.0</v>
@@ -11039,21 +11036,21 @@
         <v>2134.0</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>2118.0</v>
+        <v>2120.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>2140.0</v>
+        <v>2142.0</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>2186.0</v>
-      </c>
-      <c r="DV27" t="s" s="11">
-        <v>43</v>
+        <v>2202.0</v>
+      </c>
+      <c r="DV27" t="n" s="11">
+        <v>2215.0</v>
       </c>
     </row>
     <row r="28" ht="33.75" customHeight="true">
       <c r="A28" t="s" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -11064,106 +11061,106 @@
         <v>42</v>
       </c>
       <c r="C29" t="n" s="11">
-        <v>207.629</v>
+        <v>207.608</v>
       </c>
       <c r="D29" t="n" s="11">
-        <v>214.096</v>
+        <v>214.177</v>
       </c>
       <c r="E29" t="n" s="11">
-        <v>214.413</v>
+        <v>214.51</v>
       </c>
       <c r="F29" t="n" s="11">
-        <v>219.538</v>
+        <v>219.364</v>
       </c>
       <c r="G29" t="n" s="11">
-        <v>226.056</v>
+        <v>226.005</v>
       </c>
       <c r="H29" t="n" s="11">
-        <v>229.392</v>
+        <v>229.509</v>
       </c>
       <c r="I29" t="n" s="11">
-        <v>235.394</v>
+        <v>235.529</v>
       </c>
       <c r="J29" t="n" s="11">
-        <v>236.467</v>
+        <v>236.256</v>
       </c>
       <c r="K29" t="n" s="11">
-        <v>233.742</v>
+        <v>233.671</v>
       </c>
       <c r="L29" t="n" s="11">
-        <v>237.299</v>
+        <v>237.463</v>
       </c>
       <c r="M29" t="n" s="11">
-        <v>237.759</v>
+        <v>237.916</v>
       </c>
       <c r="N29" t="n" s="11">
-        <v>240.221</v>
+        <v>239.907</v>
       </c>
       <c r="O29" t="n" s="11">
-        <v>241.847</v>
+        <v>241.868</v>
       </c>
       <c r="P29" t="n" s="11">
-        <v>241.894</v>
+        <v>242.062</v>
       </c>
       <c r="Q29" t="n" s="11">
-        <v>243.659</v>
+        <v>243.839</v>
       </c>
       <c r="R29" t="n" s="11">
-        <v>246.848</v>
+        <v>246.366</v>
       </c>
       <c r="S29" t="n" s="11">
-        <v>248.479</v>
+        <v>248.636</v>
       </c>
       <c r="T29" t="n" s="11">
-        <v>251.892</v>
+        <v>252.059</v>
       </c>
       <c r="U29" t="n" s="11">
-        <v>253.314</v>
+        <v>253.487</v>
       </c>
       <c r="V29" t="n" s="11">
-        <v>255.29</v>
+        <v>254.793</v>
       </c>
       <c r="W29" t="n" s="11">
-        <v>254.053</v>
+        <v>254.225</v>
       </c>
       <c r="X29" t="n" s="11">
-        <v>253.936</v>
+        <v>254.066</v>
       </c>
       <c r="Y29" t="n" s="11">
-        <v>255.067</v>
+        <v>255.155</v>
       </c>
       <c r="Z29" t="n" s="11">
-        <v>255.534</v>
+        <v>255.265</v>
       </c>
       <c r="AA29" t="n" s="11">
-        <v>255.476</v>
+        <v>255.565</v>
       </c>
       <c r="AB29" t="n" s="11">
-        <v>255.313</v>
+        <v>255.367</v>
       </c>
       <c r="AC29" t="n" s="11">
-        <v>255.224</v>
+        <v>255.244</v>
       </c>
       <c r="AD29" t="n" s="11">
-        <v>256.427</v>
+        <v>256.357</v>
       </c>
       <c r="AE29" t="n" s="11">
-        <v>258.175</v>
+        <v>258.195</v>
       </c>
       <c r="AF29" t="n" s="11">
-        <v>260.02</v>
+        <v>260.03</v>
       </c>
       <c r="AG29" t="n" s="11">
-        <v>262.039</v>
+        <v>262.038</v>
       </c>
       <c r="AH29" t="n" s="11">
         <v>264.108</v>
       </c>
       <c r="AI29" t="n" s="11">
-        <v>264.937</v>
+        <v>264.936</v>
       </c>
       <c r="AJ29" t="n" s="11">
-        <v>267.82</v>
+        <v>267.819</v>
       </c>
       <c r="AK29" t="n" s="11">
         <v>269.799</v>
@@ -11367,183 +11364,183 @@
         <v>400.379</v>
       </c>
       <c r="CZ29" t="n" s="11">
-        <v>403.556</v>
+        <v>403.557</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>408.067</v>
+        <v>408.068</v>
       </c>
       <c r="DB29" t="n" s="11">
         <v>412.42</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>416.993</v>
+        <v>416.979</v>
       </c>
       <c r="DD29" t="n" s="11">
         <v>421.708</v>
       </c>
       <c r="DE29" t="n" s="11">
-        <v>425.857</v>
+        <v>425.885</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>431.159</v>
+        <v>431.211</v>
       </c>
       <c r="DG29" t="n" s="11">
-        <v>435.626</v>
+        <v>435.441</v>
       </c>
       <c r="DH29" t="n" s="11">
-        <v>440.858</v>
+        <v>440.998</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>445.935</v>
+        <v>446.023</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>450.468</v>
+        <v>450.411</v>
       </c>
       <c r="DK29" t="n" s="11">
-        <v>455.828</v>
+        <v>455.164</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>464.32</v>
+        <v>465.494</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>466.945</v>
+        <v>466.624</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>467.502</v>
+        <v>466.964</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>467.981</v>
+        <v>466.997</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>452.132</v>
+        <v>455.154</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>463.207</v>
+        <v>461.866</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>468.398</v>
+        <v>467.398</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>466.323</v>
+        <v>465.431</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>476.209</v>
+        <v>480.276</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>483.157</v>
-      </c>
-      <c r="DV29" t="s" s="11">
-        <v>43</v>
+        <v>483.915</v>
+      </c>
+      <c r="DV29" t="n" s="11">
+        <v>490.902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C30" t="n" s="11">
-        <v>36.35</v>
+        <v>36.329</v>
       </c>
       <c r="D30" t="n" s="11">
-        <v>38.48</v>
+        <v>38.561</v>
       </c>
       <c r="E30" t="n" s="11">
-        <v>38.399</v>
+        <v>38.496</v>
       </c>
       <c r="F30" t="n" s="11">
-        <v>39.395</v>
+        <v>39.221</v>
       </c>
       <c r="G30" t="n" s="11">
-        <v>40.03</v>
+        <v>39.979</v>
       </c>
       <c r="H30" t="n" s="11">
-        <v>40.683</v>
+        <v>40.8</v>
       </c>
       <c r="I30" t="n" s="11">
-        <v>42.088</v>
+        <v>42.223</v>
       </c>
       <c r="J30" t="n" s="11">
-        <v>42.807</v>
+        <v>42.596</v>
       </c>
       <c r="K30" t="n" s="11">
-        <v>40.513</v>
+        <v>40.442</v>
       </c>
       <c r="L30" t="n" s="11">
-        <v>41.97</v>
+        <v>42.134</v>
       </c>
       <c r="M30" t="n" s="11">
-        <v>42.053</v>
+        <v>42.21</v>
       </c>
       <c r="N30" t="n" s="11">
-        <v>43.171</v>
+        <v>42.857</v>
       </c>
       <c r="O30" t="n" s="11">
-        <v>43.852</v>
+        <v>43.873</v>
       </c>
       <c r="P30" t="n" s="11">
-        <v>44.523</v>
+        <v>44.691</v>
       </c>
       <c r="Q30" t="n" s="11">
-        <v>44.889</v>
+        <v>45.069</v>
       </c>
       <c r="R30" t="n" s="11">
-        <v>46.207</v>
+        <v>45.725</v>
       </c>
       <c r="S30" t="n" s="11">
-        <v>46.182</v>
+        <v>46.339</v>
       </c>
       <c r="T30" t="n" s="11">
-        <v>47.126</v>
+        <v>47.293</v>
       </c>
       <c r="U30" t="n" s="11">
-        <v>47.712</v>
+        <v>47.885</v>
       </c>
       <c r="V30" t="n" s="11">
-        <v>48.563</v>
+        <v>48.066</v>
       </c>
       <c r="W30" t="n" s="11">
-        <v>47.094</v>
+        <v>47.266</v>
       </c>
       <c r="X30" t="n" s="11">
-        <v>47.195</v>
+        <v>47.325</v>
       </c>
       <c r="Y30" t="n" s="11">
-        <v>47.703</v>
+        <v>47.791</v>
       </c>
       <c r="Z30" t="n" s="11">
-        <v>48.582</v>
+        <v>48.313</v>
       </c>
       <c r="AA30" t="n" s="11">
-        <v>48.853</v>
+        <v>48.942</v>
       </c>
       <c r="AB30" t="n" s="11">
-        <v>48.957</v>
+        <v>49.011</v>
       </c>
       <c r="AC30" t="n" s="11">
-        <v>49.01</v>
+        <v>49.03</v>
       </c>
       <c r="AD30" t="n" s="11">
-        <v>49.367</v>
+        <v>49.297</v>
       </c>
       <c r="AE30" t="n" s="11">
-        <v>49.536</v>
+        <v>49.556</v>
       </c>
       <c r="AF30" t="n" s="11">
-        <v>50.033</v>
+        <v>50.043</v>
       </c>
       <c r="AG30" t="n" s="11">
-        <v>50.43</v>
+        <v>50.429</v>
       </c>
       <c r="AH30" t="n" s="11">
         <v>51.089</v>
       </c>
       <c r="AI30" t="n" s="11">
-        <v>50.759</v>
+        <v>50.758</v>
       </c>
       <c r="AJ30" t="n" s="11">
-        <v>51.215</v>
+        <v>51.214</v>
       </c>
       <c r="AK30" t="n" s="11">
         <v>51.687</v>
@@ -11747,78 +11744,78 @@
         <v>70.992</v>
       </c>
       <c r="CZ30" t="n" s="11">
-        <v>71.425</v>
+        <v>71.426</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>72.293</v>
+        <v>72.294</v>
       </c>
       <c r="DB30" t="n" s="11">
         <v>72.88</v>
       </c>
       <c r="DC30" t="n" s="11">
-        <v>74.008</v>
+        <v>73.994</v>
       </c>
       <c r="DD30" t="n" s="11">
         <v>74.968</v>
       </c>
       <c r="DE30" t="n" s="11">
-        <v>75.479</v>
+        <v>75.507</v>
       </c>
       <c r="DF30" t="n" s="11">
-        <v>76.484</v>
+        <v>76.536</v>
       </c>
       <c r="DG30" t="n" s="11">
-        <v>76.388</v>
+        <v>76.203</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>77.045</v>
+        <v>77.185</v>
       </c>
       <c r="DI30" t="n" s="11">
-        <v>78.297</v>
+        <v>78.385</v>
       </c>
       <c r="DJ30" t="n" s="11">
-        <v>79.518</v>
+        <v>79.459</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>82.033</v>
+        <v>81.373</v>
       </c>
       <c r="DL30" t="n" s="11">
-        <v>80.731</v>
+        <v>81.925</v>
       </c>
       <c r="DM30" t="n" s="11">
-        <v>83.76</v>
+        <v>83.511</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>85.359</v>
+        <v>84.763</v>
       </c>
       <c r="DO30" t="n" s="11">
-        <v>84.718</v>
+        <v>83.578</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>80.727</v>
+        <v>83.638</v>
       </c>
       <c r="DQ30" t="n" s="11">
-        <v>85.323</v>
+        <v>84.491</v>
       </c>
       <c r="DR30" t="n" s="11">
-        <v>87.43</v>
+        <v>86.491</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>86.883</v>
+        <v>85.613</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>83.15</v>
+        <v>86.732</v>
       </c>
       <c r="DU30" t="n" s="11">
-        <v>87.857</v>
-      </c>
-      <c r="DV30" t="s" s="11">
-        <v>43</v>
+        <v>87.268</v>
+      </c>
+      <c r="DV30" t="n" s="11">
+        <v>89.888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>42</v>
@@ -12157,48 +12154,48 @@
         <v>367.638</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>370.95</v>
+        <v>370.952</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>373.795</v>
+        <v>373.791</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>383.589</v>
+        <v>383.569</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>383.185</v>
+        <v>383.113</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>382.143</v>
+        <v>382.201</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>383.263</v>
+        <v>383.419</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>371.405</v>
+        <v>371.516</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>377.884</v>
+        <v>377.375</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>380.968</v>
+        <v>380.907</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>379.44</v>
+        <v>379.818</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>393.059</v>
+        <v>393.544</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>395.3</v>
-      </c>
-      <c r="DV31" t="s" s="11">
-        <v>43</v>
+        <v>396.647</v>
+      </c>
+      <c r="DV31" t="n" s="11">
+        <v>401.014</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s" s="14">
         <v>42</v>
@@ -12534,51 +12531,51 @@
         <v>121.037</v>
       </c>
       <c r="DI32" t="n" s="11">
-        <v>122.297</v>
+        <v>122.301</v>
       </c>
       <c r="DJ32" t="n" s="11">
-        <v>123.031</v>
+        <v>123.042</v>
       </c>
       <c r="DK32" t="n" s="11">
-        <v>123.085</v>
+        <v>123.087</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>126.557</v>
+        <v>126.414</v>
       </c>
       <c r="DM32" t="n" s="11">
-        <v>126.035</v>
+        <v>126.013</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>126.039</v>
+        <v>126.328</v>
       </c>
       <c r="DO32" t="n" s="11">
-        <v>125.791</v>
+        <v>126.372</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>121.213</v>
+        <v>119.549</v>
       </c>
       <c r="DQ32" t="n" s="11">
-        <v>122.709</v>
+        <v>123.067</v>
       </c>
       <c r="DR32" t="n" s="11">
-        <v>122.924</v>
+        <v>123.646</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>122.769</v>
+        <v>123.896</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>126.647</v>
+        <v>123.814</v>
       </c>
       <c r="DU32" t="n" s="11">
-        <v>127.937</v>
-      </c>
-      <c r="DV32" t="s" s="11">
-        <v>43</v>
+        <v>128.787</v>
+      </c>
+      <c r="DV32" t="n" s="11">
+        <v>130.338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="14">
         <v>42</v>
@@ -12914,51 +12911,51 @@
         <v>61.653</v>
       </c>
       <c r="DI33" t="n" s="11">
-        <v>62.273</v>
+        <v>62.277</v>
       </c>
       <c r="DJ33" t="n" s="11">
-        <v>62.594</v>
+        <v>62.605</v>
       </c>
       <c r="DK33" t="n" s="11">
-        <v>62.114</v>
+        <v>62.118</v>
       </c>
       <c r="DL33" t="n" s="11">
-        <v>63.52</v>
+        <v>63.383</v>
       </c>
       <c r="DM33" t="n" s="11">
-        <v>63.087</v>
+        <v>63.075</v>
       </c>
       <c r="DN33" t="n" s="11">
-        <v>63.118</v>
+        <v>63.387</v>
       </c>
       <c r="DO33" t="n" s="11">
-        <v>63.458</v>
+        <v>64.014</v>
       </c>
       <c r="DP33" t="n" s="11">
-        <v>61.077</v>
+        <v>59.381</v>
       </c>
       <c r="DQ33" t="n" s="11">
-        <v>62.405</v>
+        <v>62.788</v>
       </c>
       <c r="DR33" t="n" s="11">
-        <v>62.569</v>
+        <v>63.28</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>62.8</v>
+        <v>63.868</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>65.753</v>
+        <v>62.774</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>65.874</v>
-      </c>
-      <c r="DV33" t="s" s="11">
-        <v>43</v>
+        <v>66.787</v>
+      </c>
+      <c r="DV33" t="n" s="11">
+        <v>67.921</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s" s="14">
         <v>42</v>
@@ -13300,45 +13297,45 @@
         <v>60.437</v>
       </c>
       <c r="DK34" t="n" s="11">
-        <v>60.971</v>
+        <v>60.969</v>
       </c>
       <c r="DL34" t="n" s="11">
-        <v>63.037</v>
+        <v>63.031</v>
       </c>
       <c r="DM34" t="n" s="11">
-        <v>62.948</v>
+        <v>62.938</v>
       </c>
       <c r="DN34" t="n" s="11">
-        <v>62.921</v>
+        <v>62.941</v>
       </c>
       <c r="DO34" t="n" s="11">
-        <v>62.333</v>
+        <v>62.358</v>
       </c>
       <c r="DP34" t="n" s="11">
-        <v>60.136</v>
+        <v>60.168</v>
       </c>
       <c r="DQ34" t="n" s="11">
-        <v>60.304</v>
+        <v>60.279</v>
       </c>
       <c r="DR34" t="n" s="11">
-        <v>60.355</v>
+        <v>60.366</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>59.969</v>
+        <v>60.028</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>60.894</v>
+        <v>61.04</v>
       </c>
       <c r="DU34" t="n" s="11">
-        <v>62.063</v>
-      </c>
-      <c r="DV34" t="s" s="11">
-        <v>43</v>
+        <v>62.0</v>
+      </c>
+      <c r="DV34" t="n" s="11">
+        <v>62.417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="14">
         <v>42</v>
@@ -13674,135 +13671,135 @@
         <v>242.776</v>
       </c>
       <c r="DI35" t="n" s="11">
-        <v>245.341</v>
+        <v>245.337</v>
       </c>
       <c r="DJ35" t="n" s="11">
-        <v>247.919</v>
+        <v>247.91</v>
       </c>
       <c r="DK35" t="n" s="11">
-        <v>250.71</v>
+        <v>250.704</v>
       </c>
       <c r="DL35" t="n" s="11">
-        <v>257.032</v>
+        <v>257.155</v>
       </c>
       <c r="DM35" t="n" s="11">
-        <v>257.15</v>
+        <v>257.1</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>256.104</v>
+        <v>255.873</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>257.472</v>
+        <v>257.047</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>250.192</v>
+        <v>251.967</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>255.175</v>
+        <v>254.308</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>258.044</v>
+        <v>257.261</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>256.671</v>
+        <v>255.922</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>266.412</v>
+        <v>269.73</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>267.363</v>
-      </c>
-      <c r="DV35" t="s" s="11">
-        <v>43</v>
+        <v>267.86</v>
+      </c>
+      <c r="DV35" t="n" s="11">
+        <v>270.676</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s" s="14">
         <v>50</v>
-      </c>
-      <c r="B36" t="s" s="14">
-        <v>51</v>
       </c>
       <c r="C36" t="n" s="11">
         <v>1941.0</v>
       </c>
       <c r="D36" t="n" s="11">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E36" t="n" s="11">
-        <v>2029.0</v>
+        <v>2030.0</v>
       </c>
       <c r="F36" t="n" s="11">
-        <v>2083.0</v>
+        <v>2081.0</v>
       </c>
       <c r="G36" t="n" s="11">
         <v>2154.0</v>
       </c>
       <c r="H36" t="n" s="11">
-        <v>2193.0</v>
+        <v>2194.0</v>
       </c>
       <c r="I36" t="n" s="11">
-        <v>2260.0</v>
+        <v>2261.0</v>
       </c>
       <c r="J36" t="n" s="11">
-        <v>2283.0</v>
+        <v>2281.0</v>
       </c>
       <c r="K36" t="n" s="11">
-        <v>2267.0</v>
+        <v>2266.0</v>
       </c>
       <c r="L36" t="n" s="11">
-        <v>2312.0</v>
+        <v>2313.0</v>
       </c>
       <c r="M36" t="n" s="11">
-        <v>2322.0</v>
+        <v>2324.0</v>
       </c>
       <c r="N36" t="n" s="11">
-        <v>2352.0</v>
+        <v>2349.0</v>
       </c>
       <c r="O36" t="n" s="11">
-        <v>2365.0</v>
+        <v>2366.0</v>
       </c>
       <c r="P36" t="n" s="11">
-        <v>2366.0</v>
+        <v>2368.0</v>
       </c>
       <c r="Q36" t="n" s="11">
-        <v>2381.0</v>
+        <v>2382.0</v>
       </c>
       <c r="R36" t="n" s="11">
-        <v>2409.0</v>
+        <v>2404.0</v>
       </c>
       <c r="S36" t="n" s="11">
-        <v>2425.0</v>
+        <v>2427.0</v>
       </c>
       <c r="T36" t="n" s="11">
-        <v>2457.0</v>
+        <v>2459.0</v>
       </c>
       <c r="U36" t="n" s="11">
-        <v>2472.0</v>
+        <v>2473.0</v>
       </c>
       <c r="V36" t="n" s="11">
-        <v>2490.0</v>
+        <v>2485.0</v>
       </c>
       <c r="W36" t="n" s="11">
+        <v>2480.0</v>
+      </c>
+      <c r="X36" t="n" s="11">
         <v>2479.0</v>
       </c>
-      <c r="X36" t="n" s="11">
-        <v>2478.0</v>
-      </c>
       <c r="Y36" t="n" s="11">
-        <v>2493.0</v>
+        <v>2494.0</v>
       </c>
       <c r="Z36" t="n" s="11">
-        <v>2501.0</v>
+        <v>2499.0</v>
       </c>
       <c r="AA36" t="n" s="11">
-        <v>2503.0</v>
+        <v>2504.0</v>
       </c>
       <c r="AB36" t="n" s="11">
         <v>2502.0</v>
       </c>
       <c r="AC36" t="n" s="11">
-        <v>2499.0</v>
+        <v>2500.0</v>
       </c>
       <c r="AD36" t="n" s="11">
         <v>2509.0</v>
@@ -14045,63 +14042,63 @@
         <v>3553.0</v>
       </c>
       <c r="DF36" t="n" s="11">
-        <v>3583.0</v>
+        <v>3584.0</v>
       </c>
       <c r="DG36" t="n" s="11">
-        <v>3605.0</v>
+        <v>3603.0</v>
       </c>
       <c r="DH36" t="n" s="11">
-        <v>3634.0</v>
+        <v>3635.0</v>
       </c>
       <c r="DI36" t="n" s="11">
-        <v>3663.0</v>
+        <v>3664.0</v>
       </c>
       <c r="DJ36" t="n" s="11">
         <v>3690.0</v>
       </c>
       <c r="DK36" t="n" s="11">
-        <v>3725.0</v>
+        <v>3720.0</v>
       </c>
       <c r="DL36" t="n" s="11">
-        <v>3774.0</v>
+        <v>3784.0</v>
       </c>
       <c r="DM36" t="n" s="11">
-        <v>3792.0</v>
+        <v>3790.0</v>
       </c>
       <c r="DN36" t="n" s="11">
-        <v>3795.0</v>
+        <v>3791.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>3800.0</v>
+        <v>3791.0</v>
       </c>
       <c r="DP36" t="n" s="11">
-        <v>3700.0</v>
+        <v>3726.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>3798.0</v>
+        <v>3787.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>3844.0</v>
+        <v>3835.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>3835.0</v>
+        <v>3826.0</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>3886.0</v>
+        <v>3920.0</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>3930.0</v>
-      </c>
-      <c r="DV36" t="s" s="11">
-        <v>43</v>
+        <v>3935.0</v>
+      </c>
+      <c r="DV36" t="n" s="11">
+        <v>3980.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="n" s="11">
         <v>1601.0</v>
@@ -14446,42 +14443,42 @@
         <v>3118.0</v>
       </c>
       <c r="DM37" t="n" s="11">
-        <v>3112.0</v>
+        <v>3111.0</v>
       </c>
       <c r="DN37" t="n" s="11">
-        <v>3102.0</v>
+        <v>3103.0</v>
       </c>
       <c r="DO37" t="n" s="11">
-        <v>3112.0</v>
+        <v>3113.0</v>
       </c>
       <c r="DP37" t="n" s="11">
-        <v>3040.0</v>
+        <v>3041.0</v>
       </c>
       <c r="DQ37" t="n" s="11">
-        <v>3098.0</v>
+        <v>3095.0</v>
       </c>
       <c r="DR37" t="n" s="11">
-        <v>3126.0</v>
+        <v>3125.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>3120.0</v>
+        <v>3122.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>3208.0</v>
+        <v>3212.0</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>3215.0</v>
-      </c>
-      <c r="DV37" t="s" s="11">
-        <v>43</v>
+        <v>3225.0</v>
+      </c>
+      <c r="DV37" t="n" s="11">
+        <v>3252.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="n" s="11">
         <v>1142.0</v>
@@ -14823,47 +14820,47 @@
         <v>2049.0</v>
       </c>
       <c r="DL38" t="n" s="11">
-        <v>2089.0</v>
+        <v>2090.0</v>
       </c>
       <c r="DM38" t="n" s="11">
-        <v>2089.0</v>
+        <v>2088.0</v>
       </c>
       <c r="DN38" t="n" s="11">
-        <v>2079.0</v>
+        <v>2077.0</v>
       </c>
       <c r="DO38" t="n" s="11">
-        <v>2090.0</v>
+        <v>2087.0</v>
       </c>
       <c r="DP38" t="n" s="11">
-        <v>2048.0</v>
+        <v>2062.0</v>
       </c>
       <c r="DQ38" t="n" s="11">
-        <v>2092.0</v>
+        <v>2085.0</v>
       </c>
       <c r="DR38" t="n" s="11">
-        <v>2118.0</v>
+        <v>2111.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>2111.0</v>
+        <v>2104.0</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>2174.0</v>
+        <v>2201.0</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>2175.0</v>
-      </c>
-      <c r="DV38" t="s" s="11">
-        <v>43</v>
+        <v>2178.0</v>
+      </c>
+      <c r="DV38" t="n" s="11">
+        <v>2195.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -14910,7 +14907,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:47:41&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:16:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>